--- a/medicine/Mort/Liste_des_généraux_français_tués_pendant_la_Première_Guerre_mondiale/Liste_des_généraux_français_tués_pendant_la_Première_Guerre_mondiale.xlsx
+++ b/medicine/Mort/Liste_des_généraux_français_tués_pendant_la_Première_Guerre_mondiale/Liste_des_généraux_français_tués_pendant_la_Première_Guerre_mondiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_g%C3%A9n%C3%A9raux_fran%C3%A7ais_tu%C3%A9s_pendant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_des_généraux_français_tués_pendant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des généraux français tués pendant la Première Guerre mondiale recense les officiers généraux tués ou morts des suites des blessures reçues, du 28 juillet 1914 (première déclaration de guerre, de l'Autriche-Hongrie à la Serbie) au 10 août 1920 (signature du dernier traité de paix, celui de Sèvres).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_g%C3%A9n%C3%A9raux_fran%C3%A7ais_tu%C3%A9s_pendant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_des_généraux_français_tués_pendant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Généraux tués</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste regroupe les 42 généraux officiellement déclarés « morts pour la France » ou « morts au champ d'honneur », tués pendant la Première Guerre mondiale et figurant sur le monument des Généraux morts au Champ d'Honneur 1914-1918 de l'église Saint-Louis à l'Hôtel des Invalides de Paris[1].
-Ne figurent pas ici les généraux décédés de mort naturelle pendant la guerre (comme Joseph Gallieni, mort de maladie), ou les suicidés (comme Pierre Peslin, commandant la 9e DI, le 10 août 1914). Ne figurent pas non plus les officiers supérieurs ayant le grade de général de brigade à titre temporaire (ATT, exemple : le colonel Théodore Pein[2], commandant la 1re brigade d'infanterie, mort à Acq le 10 mai 1915).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste regroupe les 42 généraux officiellement déclarés « morts pour la France » ou « morts au champ d'honneur », tués pendant la Première Guerre mondiale et figurant sur le monument des Généraux morts au Champ d'Honneur 1914-1918 de l'église Saint-Louis à l'Hôtel des Invalides de Paris.
+Ne figurent pas ici les généraux décédés de mort naturelle pendant la guerre (comme Joseph Gallieni, mort de maladie), ou les suicidés (comme Pierre Peslin, commandant la 9e DI, le 10 août 1914). Ne figurent pas non plus les officiers supérieurs ayant le grade de général de brigade à titre temporaire (ATT, exemple : le colonel Théodore Pein, commandant la 1re brigade d'infanterie, mort à Acq le 10 mai 1915).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_g%C3%A9n%C3%A9raux_fran%C3%A7ais_tu%C3%A9s_pendant_la_Premi%C3%A8re_Guerre_mondiale</t>
+          <t>Liste_des_généraux_français_tués_pendant_la_Première_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Généraux à assimiler</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les généraux suivants sont morts de maladie contractée pendant le service ou de conséquences probables du combat.
 </t>
